--- a/status.xlsx
+++ b/status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115FA1D9-18D6-434F-9534-ED240F067CD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FAD2B8-7C49-4E2E-8788-F27BFAEB21B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{64C09425-6C76-4D41-B335-1D712AB4A788}"/>
+    <workbookView xWindow="-57720" yWindow="-2655" windowWidth="57840" windowHeight="23640" xr2:uid="{64C09425-6C76-4D41-B335-1D712AB4A788}"/>
   </bookViews>
   <sheets>
     <sheet name="tabel" sheetId="1" r:id="rId1"/>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165C2EE5-5B7C-4DA6-8671-EF8F0B4E0CAA}">
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,19 +1152,19 @@
         <v>76</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="X28" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>68</v>
@@ -1369,7 +1369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1007321C-8DC7-42B4-90F9-2505A031E30C}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>

--- a/status.xlsx
+++ b/status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FAD2B8-7C49-4E2E-8788-F27BFAEB21B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5338BB-5528-4E4A-AAE9-67C5A9D240A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-2655" windowWidth="57840" windowHeight="23640" xr2:uid="{64C09425-6C76-4D41-B335-1D712AB4A788}"/>
+    <workbookView xWindow="-57720" yWindow="-2820" windowWidth="57840" windowHeight="23640" xr2:uid="{64C09425-6C76-4D41-B335-1D712AB4A788}"/>
   </bookViews>
   <sheets>
     <sheet name="tabel" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="82">
   <si>
     <t>Fl.</t>
   </si>
@@ -753,7 +753,7 @@
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,14 +1248,11 @@
       <c r="A36" t="s">
         <v>64</v>
       </c>
+      <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="F36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -1266,7 +1263,7 @@
         <v>76</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y37" s="1" t="s">
         <v>68</v>

--- a/status.xlsx
+++ b/status.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5338BB-5528-4E4A-AAE9-67C5A9D240A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0960F47-0A7A-40EE-8A6F-EBA2017316AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-2820" windowWidth="57840" windowHeight="23640" xr2:uid="{64C09425-6C76-4D41-B335-1D712AB4A788}"/>
   </bookViews>
   <sheets>
     <sheet name="tabel" sheetId="1" r:id="rId1"/>
-    <sheet name="legenda" sheetId="2" r:id="rId2"/>
+    <sheet name="legende" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="81">
   <si>
     <t>Fl.</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>⬜</t>
-  </si>
-  <si>
-    <t>◻️</t>
   </si>
   <si>
     <t>Familie</t>
@@ -753,7 +750,7 @@
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,10 +762,10 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -837,23 +834,20 @@
         <v>21</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -873,7 +867,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>68</v>
@@ -898,7 +892,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>70</v>
@@ -909,7 +903,7 @@
         <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -917,7 +911,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>70</v>
@@ -939,7 +933,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>69</v>
@@ -964,7 +958,7 @@
         <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>68</v>
@@ -975,7 +969,7 @@
         <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>69</v>
@@ -997,37 +991,28 @@
       <c r="H14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1042,7 +1027,7 @@
         <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>70</v>
@@ -1061,7 +1046,7 @@
         <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>70</v>
@@ -1083,7 +1068,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>70</v>
@@ -1094,7 +1079,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>68</v>
@@ -1105,7 +1090,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>68</v>
@@ -1127,7 +1112,7 @@
         <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>68</v>
@@ -1138,7 +1123,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>70</v>
@@ -1149,7 +1134,7 @@
         <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>68</v>
@@ -1175,7 +1160,7 @@
         <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>68</v>
@@ -1186,7 +1171,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>68</v>
@@ -1205,7 +1190,7 @@
         <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>70</v>
@@ -1216,7 +1201,7 @@
         <v>47</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>68</v>
@@ -1227,7 +1212,7 @@
         <v>48</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>68</v>
@@ -1238,7 +1223,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>70</v>
@@ -1249,7 +1234,7 @@
         <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>68</v>
@@ -1260,7 +1245,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>68</v>
@@ -1282,7 +1267,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R39" s="1" t="s">
         <v>70</v>
@@ -1293,7 +1278,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>68</v>
@@ -1307,7 +1292,7 @@
         <v>24</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>68</v>
@@ -1318,7 +1303,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W42" s="1" t="s">
         <v>70</v>
@@ -1337,7 +1322,7 @@
         <v>37</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>70</v>
@@ -1348,7 +1333,7 @@
         <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V45" s="1" t="s">
         <v>70</v>
@@ -1372,8 +1357,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1381,12 +1366,12 @@
         <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -1397,12 +1382,12 @@
         <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -1410,10 +1395,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
         <v>79</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/status.xlsx
+++ b/status.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michi\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0960F47-0A7A-40EE-8A6F-EBA2017316AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D099FAC9-678B-4F7D-B871-A349BFF93279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-2820" windowWidth="57840" windowHeight="23640" xr2:uid="{64C09425-6C76-4D41-B335-1D712AB4A788}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64C09425-6C76-4D41-B335-1D712AB4A788}"/>
   </bookViews>
   <sheets>
     <sheet name="tabel" sheetId="1" r:id="rId1"/>
@@ -324,8 +324,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{CFE3C9D0-5411-4078-90D6-1CB0E3F28D25}"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -750,7 +750,7 @@
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +936,7 @@
         <v>75</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">

--- a/status.xlsx
+++ b/status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michi\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D099FAC9-678B-4F7D-B871-A349BFF93279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010085E4-6953-4B9A-A11A-4D730AD16E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64C09425-6C76-4D41-B335-1D712AB4A788}"/>
   </bookViews>
@@ -750,7 +750,7 @@
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,7 +1182,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -1193,7 +1193,7 @@
         <v>75</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -1270,7 +1270,7 @@
         <v>75</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
@@ -1306,7 +1306,7 @@
         <v>75</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">

--- a/status.xlsx
+++ b/status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michi\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010085E4-6953-4B9A-A11A-4D730AD16E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62D90FA-5C5B-4CAA-A0C4-3F27A5B0CCAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64C09425-6C76-4D41-B335-1D712AB4A788}"/>
   </bookViews>
@@ -750,7 +750,7 @@
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,14 +943,11 @@
       <c r="A11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>71</v>
+      <c r="B11" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -1000,13 +997,13 @@
         <v>75</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -1181,6 +1178,9 @@
       <c r="A31" t="s">
         <v>38</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>68</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>75</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">

--- a/status.xlsx
+++ b/status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michi\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62D90FA-5C5B-4CAA-A0C4-3F27A5B0CCAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A20C14A-CE68-4FDC-A89A-7A2547DDC118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64C09425-6C76-4D41-B335-1D712AB4A788}"/>
   </bookViews>
@@ -749,9 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165C2EE5-5B7C-4DA6-8671-EF8F0B4E0CAA}">
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1123,7 +1121,7 @@
         <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">

--- a/status.xlsx
+++ b/status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michi\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A20C14A-CE68-4FDC-A89A-7A2547DDC118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B1CD65-EDD0-4B68-8EE7-F1593D96E188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64C09425-6C76-4D41-B335-1D712AB4A788}"/>
   </bookViews>
@@ -1044,7 +1044,7 @@
         <v>75</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">

--- a/status.xlsx
+++ b/status.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michi\xmas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B1CD65-EDD0-4B68-8EE7-F1593D96E188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AE9475-9C78-4F0A-A396-E858759A762B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64C09425-6C76-4D41-B335-1D712AB4A788}"/>
   </bookViews>
@@ -324,8 +324,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{CFE3C9D0-5411-4078-90D6-1CB0E3F28D25}"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -749,7 +749,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165C2EE5-5B7C-4DA6-8671-EF8F0B4E0CAA}">
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1065,7 +1067,7 @@
       <c r="B22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>70</v>
       </c>
     </row>

--- a/status.xlsx
+++ b/status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AE9475-9C78-4F0A-A396-E858759A762B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F535D2B-41F3-46E3-84D5-219614018623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64C09425-6C76-4D41-B335-1D712AB4A788}"/>
   </bookViews>
@@ -750,7 +750,7 @@
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="O13" sqref="O13:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1146,7 @@
         <v>68</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>68</v>

--- a/status.xlsx
+++ b/status.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michi\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F535D2B-41F3-46E3-84D5-219614018623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25F3884-2A8B-416D-A6FF-F860FEEF96E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64C09425-6C76-4D41-B335-1D712AB4A788}"/>
   </bookViews>
@@ -324,8 +324,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{CFE3C9D0-5411-4078-90D6-1CB0E3F28D25}"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -749,9 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165C2EE5-5B7C-4DA6-8671-EF8F0B4E0CAA}">
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13:P13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -877,14 +875,11 @@
       <c r="A5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>71</v>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -947,7 +942,7 @@
         <v>75</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -1026,8 +1021,11 @@
       <c r="B18" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G18" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">

--- a/status.xlsx
+++ b/status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michi\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25F3884-2A8B-416D-A6FF-F860FEEF96E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1715DDE-04FF-4BA8-8330-48E87F3CD1BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64C09425-6C76-4D41-B335-1D712AB4A788}"/>
   </bookViews>
@@ -749,7 +749,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165C2EE5-5B7C-4DA6-8671-EF8F0B4E0CAA}">
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -909,7 +911,7 @@
         <v>75</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">

--- a/status.xlsx
+++ b/status.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michi\xmas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1715DDE-04FF-4BA8-8330-48E87F3CD1BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E6D014-2DBF-428D-BC6A-AB559DD21C13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64C09425-6C76-4D41-B335-1D712AB4A788}"/>
+    <workbookView xWindow="2355" yWindow="615" windowWidth="27540" windowHeight="16710" xr2:uid="{64C09425-6C76-4D41-B335-1D712AB4A788}"/>
   </bookViews>
   <sheets>
     <sheet name="tabel" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
   <si>
     <t>Fl.</t>
   </si>
@@ -247,9 +247,6 @@
   </si>
   <si>
     <t>⏳</t>
-  </si>
-  <si>
-    <t>⬜</t>
   </si>
   <si>
     <t>Familie</t>
@@ -294,6 +291,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -324,8 +322,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{CFE3C9D0-5411-4078-90D6-1CB0E3F28D25}"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -451,7 +449,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -750,7 +748,7 @@
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="W42" sqref="W42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,10 +760,10 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -834,7 +832,7 @@
         <v>21</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -847,7 +845,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -867,7 +865,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>68</v>
@@ -878,7 +876,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>68</v>
@@ -889,10 +887,13 @@
         <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -900,7 +901,7 @@
         <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -908,7 +909,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>68</v>
@@ -918,19 +919,13 @@
       <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>68</v>
@@ -941,7 +936,7 @@
         <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>68</v>
@@ -952,7 +947,7 @@
         <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>68</v>
@@ -963,35 +958,20 @@
         <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>68</v>
@@ -1012,16 +992,13 @@
       <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>68</v>
@@ -1034,16 +1011,13 @@
       <c r="A19" t="s">
         <v>62</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>68</v>
@@ -1053,19 +1027,13 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>70</v>
@@ -1076,7 +1044,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>68</v>
@@ -1087,7 +1055,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>68</v>
@@ -1097,19 +1065,13 @@
       <c r="A25" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>68</v>
@@ -1120,7 +1082,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>68</v>
@@ -1131,7 +1093,7 @@
         <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>68</v>
@@ -1157,7 +1119,7 @@
         <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>68</v>
@@ -1168,7 +1130,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>68</v>
@@ -1179,7 +1141,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>68</v>
@@ -1190,7 +1152,7 @@
         <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>68</v>
@@ -1201,7 +1163,7 @@
         <v>47</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>68</v>
@@ -1212,7 +1174,7 @@
         <v>48</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>68</v>
@@ -1223,10 +1185,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -1234,7 +1196,7 @@
         <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>68</v>
@@ -1245,7 +1207,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>68</v>
@@ -1258,16 +1220,13 @@
       <c r="A38" t="s">
         <v>51</v>
       </c>
-      <c r="R38" s="1" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R39" s="1" t="s">
         <v>68</v>
@@ -1278,7 +1237,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>68</v>
@@ -1292,7 +1251,7 @@
         <v>24</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>68</v>
@@ -1303,7 +1262,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W42" s="1" t="s">
         <v>68</v>
@@ -1313,16 +1272,13 @@
       <c r="A43" t="s">
         <v>52</v>
       </c>
-      <c r="Q43" s="1" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>68</v>
@@ -1333,7 +1289,7 @@
         <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V45" s="1" t="s">
         <v>70</v>
@@ -1366,12 +1322,12 @@
         <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -1382,12 +1338,12 @@
         <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -1395,10 +1351,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
         <v>78</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/status.xlsx
+++ b/status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E6D014-2DBF-428D-BC6A-AB559DD21C13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA5E1B3-1573-4B92-8989-534FA6F93CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="615" windowWidth="27540" windowHeight="16710" xr2:uid="{64C09425-6C76-4D41-B335-1D712AB4A788}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64C09425-6C76-4D41-B335-1D712AB4A788}"/>
   </bookViews>
   <sheets>
     <sheet name="tabel" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>Fl.</t>
   </si>
@@ -54,12 +54,6 @@
     <t>Cl. 3</t>
   </si>
   <si>
-    <t>A. Cl.</t>
-  </si>
-  <si>
-    <t>B. Cl.</t>
-  </si>
-  <si>
     <t>A. Sx. 1</t>
   </si>
   <si>
@@ -138,24 +132,15 @@
     <t>Sanderijn</t>
   </si>
   <si>
-    <t>Hilke</t>
-  </si>
-  <si>
     <t>Janne</t>
   </si>
   <si>
-    <t>Hannah</t>
-  </si>
-  <si>
     <t>Valerie</t>
   </si>
   <si>
     <t>Marlies</t>
   </si>
   <si>
-    <t>Françoise</t>
-  </si>
-  <si>
     <t>Fien C</t>
   </si>
   <si>
@@ -165,12 +150,6 @@
     <t>Matthias</t>
   </si>
   <si>
-    <t>Hilde</t>
-  </si>
-  <si>
-    <t>Elien</t>
-  </si>
-  <si>
     <t>Koen VH</t>
   </si>
   <si>
@@ -189,42 +168,18 @@
     <t>Jonathan</t>
   </si>
   <si>
-    <t>Sébastien</t>
-  </si>
-  <si>
-    <t>Tony</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
     <t>Henk</t>
   </si>
   <si>
-    <t>Filip</t>
-  </si>
-  <si>
-    <t>Anton</t>
-  </si>
-  <si>
     <t>gereageerd</t>
   </si>
   <si>
-    <t>David Buyst</t>
-  </si>
-  <si>
     <t>Geert DG</t>
   </si>
   <si>
-    <t>Geert DT</t>
-  </si>
-  <si>
     <t>Heleen Baudot</t>
   </si>
   <si>
-    <t>Heleen Buysse</t>
-  </si>
-  <si>
     <t>Koen D</t>
   </si>
   <si>
@@ -246,16 +201,10 @@
     <t>❓</t>
   </si>
   <si>
-    <t>⏳</t>
-  </si>
-  <si>
     <t>Familie</t>
   </si>
   <si>
     <t>Muzikant</t>
-  </si>
-  <si>
-    <t>Reactie</t>
   </si>
   <si>
     <t>💬</t>
@@ -325,16 +274,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{CFE3C9D0-5411-4078-90D6-1CB0E3F28D25}"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -412,22 +352,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9E433F9-BAB5-4BB3-A7C6-717F9D03874E}" name="Table1" displayName="Table1" ref="A1:Y45" totalsRowShown="0">
-  <autoFilter ref="A1:Y45" xr:uid="{8B7C8B22-7624-462B-9EB5-26C2A308B0AD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y45">
-    <sortCondition ref="A3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9E433F9-BAB5-4BB3-A7C6-717F9D03874E}" name="Table1" displayName="Table1" ref="A1:V32" totalsRowShown="0">
+  <autoFilter ref="A1:V32" xr:uid="{8B7C8B22-7624-462B-9EB5-26C2A308B0AD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V32">
+    <sortCondition ref="A2"/>
   </sortState>
-  <tableColumns count="25">
+  <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{D878C8BB-0AF8-4B52-8B06-7CC7197CA212}" name="Muzikant"/>
-    <tableColumn id="25" xr3:uid="{8C791613-59FE-4EF7-9039-A7903D9C986D}" name="Reactie" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{435ED3D4-3241-4717-8142-336A2E04FEB5}" name="Fl." dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{D5E3B102-7FC6-4B6B-AA60-3FF96C565A21}" name="Ob." dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{44CDF896-388B-41DC-BB57-BFD9DADEC3EA}" name="Bsn." dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{289B4949-1EEC-4F86-91F5-6D30EA17AE7F}" name="Cl. 1" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{F79BA9EF-D1EC-4498-A698-1803DD62EF28}" name="Cl. 2" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{6F510A45-6E94-489C-B947-DE4F96EA97B4}" name="Cl. 3" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{39F995B6-B227-4C06-90EE-E1AF6D59B2ED}" name="A. Cl." dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{A7CB9465-4F11-472E-BE42-251DB5FCE641}" name="B. Cl." dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{435ED3D4-3241-4717-8142-336A2E04FEB5}" name="Fl." dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{D5E3B102-7FC6-4B6B-AA60-3FF96C565A21}" name="Ob." dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{44CDF896-388B-41DC-BB57-BFD9DADEC3EA}" name="Bsn." dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{289B4949-1EEC-4F86-91F5-6D30EA17AE7F}" name="Cl. 1" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{F79BA9EF-D1EC-4498-A698-1803DD62EF28}" name="Cl. 2" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{6F510A45-6E94-489C-B947-DE4F96EA97B4}" name="Cl. 3" dataDxfId="15"/>
     <tableColumn id="10" xr3:uid="{E230D2DD-4F93-460A-8312-7BAC75E7D21E}" name="A. Sx. 1" dataDxfId="14"/>
     <tableColumn id="11" xr3:uid="{98A40D99-F65A-4358-B812-E86D9E13626F}" name="A. Sx. 2" dataDxfId="13"/>
     <tableColumn id="12" xr3:uid="{813E86B8-5119-493B-AB6A-CF436D3A32D1}" name="T. Sx." dataDxfId="12"/>
@@ -745,554 +682,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165C2EE5-5B7C-4DA6-8671-EF8F0B4E0CAA}">
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="W42" sqref="W42"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="25" width="5.28515625" style="1" customWidth="1"/>
+    <col min="2" max="22" width="5.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y28" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y37" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W42" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>70</v>
+      <c r="S32" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1319,42 +1079,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
